--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Tasa morta materna.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Tasa morta materna.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5B4419-3DC5-4254-88CC-AF6F5124C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B81CDA-5132-4492-B09E-0EB27321B793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{224ACB1B-97CF-4F18-8D97-CE5FFE3DB0FB}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224ACB1B-97CF-4F18-8D97-CE5FFE3DB0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasa mortalidad materna" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="3" xr:uid="{A74A74C8-3BDD-4E75-A658-52F4226D8D25}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja1" xfId="2" xr:uid="{5D16CC8D-B22C-421D-B8A4-9C7875B074A2}"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,11 +506,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F3718D-982C-4D38-832A-CB77585EC2EB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -537,7 +537,7 @@
         <v>290</v>
       </c>
       <c r="D2" s="4">
-        <v>6.2111987485077051</v>
+        <v>6.2111987485077096</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -591,11 +591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492F7183-DFFE-4E41-88D4-8CC180F80DD8}">
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Tasa morta materna.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Tasa morta materna.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5B4419-3DC5-4254-88CC-AF6F5124C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{224ACB1B-97CF-4F18-8D97-CE5FFE3DB0FB}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{224ACB1B-97CF-4F18-8D97-CE5FFE3DB0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasa mortalidad materna" sheetId="1" r:id="rId1"/>
